--- a/Data/access_list.xlsx
+++ b/Data/access_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/60387dca0f89eeaf/Fussballdaten/uefa_ranking/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/60387dca0f89eeaf/Fussballdaten/uefa_ranking/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="46" documentId="8_{C14F0406-73EE-4E57-A883-5CF8202EEC77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{02659D1E-974A-4DFC-A99A-618051A57942}"/>
+  <xr:revisionPtr revIDLastSave="48" documentId="8_{C14F0406-73EE-4E57-A883-5CF8202EEC77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F4E75191-F785-4011-9765-CC2BD419E44C}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9EBCBA20-F37A-4829-B7B9-7FF32AFFA185}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{9EBCBA20-F37A-4829-B7B9-7FF32AFFA185}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -466,19 +466,19 @@
   <dimension ref="A1:I56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="19.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -507,7 +507,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -536,7 +536,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -565,7 +565,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -594,7 +594,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -623,7 +623,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -649,7 +649,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -675,7 +675,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -698,7 +698,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -721,7 +721,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -744,7 +744,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -767,7 +767,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -790,7 +790,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -813,7 +813,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -836,7 +836,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -859,7 +859,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -882,7 +882,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -902,7 +902,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -922,7 +922,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -942,7 +942,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -962,7 +962,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -982,7 +982,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1002,7 +1002,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1022,7 +1022,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1042,7 +1042,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1062,7 +1062,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1082,7 +1082,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1102,7 +1102,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1122,7 +1122,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1142,7 +1142,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1162,7 +1162,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1182,7 +1182,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1202,7 +1202,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1222,7 +1222,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1242,7 +1242,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1262,7 +1262,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1282,7 +1282,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1302,7 +1302,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1322,7 +1322,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1342,7 +1342,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1362,7 +1362,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1382,7 +1382,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1402,7 +1402,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1422,7 +1422,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1442,7 +1442,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1462,7 +1462,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1482,7 +1482,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -1502,7 +1502,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -1522,7 +1522,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -1542,7 +1542,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -1562,7 +1562,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -1582,7 +1582,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -1602,7 +1602,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -1619,7 +1619,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -1636,7 +1636,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -1653,7 +1653,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
